--- a/Votes/AllVotes_categorized.xlsx
+++ b/Votes/AllVotes_categorized.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CE5A4C-42EE-1B44-BF48-AC3D10A8F27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="2260" windowWidth="53560" windowHeight="26120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="620" windowWidth="53560" windowHeight="26120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
